--- a/python/데이터분석/insurance/preprocessed_data_txt-sum.xlsx
+++ b/python/데이터분석/insurance/preprocessed_data_txt-sum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,70 +456,65 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>보장단위</t>
+          <t>보장금액</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>보장금액</t>
+          <t>월 보험료</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>월 보험료</t>
+          <t>기본 보험료</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>기본 보험료</t>
+          <t>할증 보험료</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>할증 보험료</t>
+          <t>그룹</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>그룹</t>
+          <t>보장기간</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>보험기간</t>
+          <t>납입기간(년)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>납입기간(년)</t>
+          <t>갱신여부</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>갱신</t>
+          <t>총 보험료</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>만기 보험료</t>
+          <t>보장 대비 납입율</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>보장 대비 납입율</t>
+          <t>보험 발생(질병)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>보험 발생(질병)</t>
+          <t>보장 횟수</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>보장 횟수</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>내용 요약</t>
         </is>
@@ -548,54 +543,49 @@
 ※ 1일당 간병인 사용금액은 연속적인 간병인 사용일마다 총 사용금액을 총 사용일수로 나눈 금액으로 판단함</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E2" t="n">
+        <v>150000</v>
       </c>
       <c r="F2" t="n">
-        <v>150000</v>
+        <v>7305</v>
       </c>
       <c r="G2" t="n">
         <v>7305</v>
       </c>
-      <c r="H2" t="n">
-        <v>7305</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>20</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1753200</v>
       </c>
       <c r="N2" t="n">
-        <v>1753200</v>
-      </c>
-      <c r="O2" t="n">
         <v>11.688</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>복·의원(요양병원 제외) 1일 이상 입원</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>간병인</t>
+          <t>1일 일당</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1일당</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>상해로 1일 이상 입원 시 간병인 사용에 따라 일당 지급. 7만원 미만 50%, 7만원 이상 100% 할증 지급, 최대 180일.</t>
+          <t>상해로 1일 이상 병·의원(요양병원 제외) 입원 시 간병인 사용에 따라 일당 지급, 7만원 미만 50%, 7만원 이상 100% 할증 지급, 최대 180일.</t>
         </is>
       </c>
     </row>
@@ -620,54 +610,49 @@
           <t>상해사고로 요양병원에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 가입금액을 매5년마다 10%씩 정액 할증한 금액을 지급(180일을 한도로 간병인 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E3" t="n">
+        <v>30000</v>
       </c>
       <c r="F3" t="n">
-        <v>30000</v>
+        <v>393</v>
       </c>
       <c r="G3" t="n">
         <v>393</v>
       </c>
-      <c r="H3" t="n">
-        <v>393</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>20</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>94320</v>
       </c>
       <c r="N3" t="n">
-        <v>94320</v>
-      </c>
-      <c r="O3" t="n">
         <v>3.144</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>요양병원 1일 이상 입원</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>간병인</t>
+          <t>1일 일당</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1일당</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>요양병원에서 1일 이상 입원 시 간병인 사용에 따라 가입금액을 매5년마다 10%씩 정액 할증한 금액을 지급, 최대 180일.</t>
+          <t>상해로 1일 이상 요양병원 입원시 간병인 사용에 따라 일당 지급, 20년마다 10%씩 정액 할증, 최대 180일.</t>
         </is>
       </c>
     </row>
@@ -694,56 +679,51 @@
 ※ 1일당 간병인 사용금액은 연속적인 간병인 사용일마다 총 사용금액을 총 사용일수로 나눈 금액으로 판단함</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E4" t="n">
+        <v>150000</v>
       </c>
       <c r="F4" t="n">
-        <v>150000</v>
+        <v>25297</v>
       </c>
       <c r="G4" t="n">
-        <v>25297</v>
+        <v>17265</v>
       </c>
       <c r="H4" t="n">
-        <v>17265</v>
-      </c>
-      <c r="I4" t="n">
         <v>8032</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>20</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>6071280</v>
       </c>
       <c r="N4" t="n">
-        <v>6071280</v>
-      </c>
-      <c r="O4" t="n">
         <v>40.4752</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>질병 1일 이상 입원</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>간병인</t>
+          <t>1일 일당</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1일당</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>질병으로 1일 이상 입원 시 간병인 사용에 따라 일당 지급. 7만원 미만 50%, 7만원 이상 100% 할증 지급, 최대 180일.</t>
+          <t>질병으로 1일 이상 입원시 간병인 사용에 따라 일당 지급, 7만원 미만 50%, 7만원 이상 100% 할증 지급, 최대 180일.</t>
         </is>
       </c>
     </row>
@@ -768,56 +748,51 @@
           <t>보험기간 중 질병으로 요양병원에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 가입금액을 매5년마다 10%씩 정액 할 증한 금액을 지급(180일을 한도로 간병인 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E5" t="n">
+        <v>10000</v>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>3438</v>
       </c>
       <c r="G5" t="n">
-        <v>3438</v>
+        <v>2374</v>
       </c>
       <c r="H5" t="n">
-        <v>2374</v>
-      </c>
-      <c r="I5" t="n">
         <v>1064</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>20</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>20</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>825120</v>
       </c>
       <c r="N5" t="n">
-        <v>825120</v>
-      </c>
-      <c r="O5" t="n">
         <v>82.512</v>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>질병 요양병원 1일 이상 입원</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>간병인</t>
+          <t>1일 일당</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1일당</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>질병으로 요양병원에서 1일 이상 입원 시 간병인 사용에 따라 가입금액을 매5년마다 10%씩 정액 할증한 금액을 지급, 최대 180일.</t>
+          <t>질병으로 요양병원 1일 이상 입원시 간병인 사용에 따라 일당 지급, 20년마다 10%씩 정액 할증, 최대 180일.</t>
         </is>
       </c>
     </row>
@@ -844,54 +819,49 @@
 ※ 1일당 간병인 사용금액은 연속적인 간병인 사용일마다 총 사용금액을 총 사용일수로 나눈 금액으로 판단함</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E6" t="n">
+        <v>150000</v>
       </c>
       <c r="F6" t="n">
-        <v>150000</v>
+        <v>7695</v>
       </c>
       <c r="G6" t="n">
         <v>7695</v>
       </c>
-      <c r="H6" t="n">
-        <v>7695</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>20</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>20</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1846800</v>
       </c>
       <c r="N6" t="n">
-        <v>1846800</v>
-      </c>
-      <c r="O6" t="n">
         <v>12.312</v>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>복·의원(요양병원 제외) 1일 이상 입원</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>간병인</t>
+          <t>1일 일당</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1일당</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>상해로 1일 이상 입원 시 간병인 사용에 따라 일당 지급. 7만원 미만 50%, 7만원 이상 100% 할증 지급, 최대 180일.</t>
+          <t>상해로 1일 이상 병·의원(요양병원 제외) 입원 시 간병인 사용에 따라 일당 지급, 20년 미만 50%, 20년 이상 100%, 7만원 이상 200%, 최대 180일.</t>
         </is>
       </c>
     </row>
@@ -916,54 +886,49 @@
           <t>상해사고로 요양병원에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 가입후 20년 미만 시 가입금액의 100%를 지급, 가 입후 20년 이상 시 가입금액의 200%를 지급(180일을 한도로 간병인 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E7" t="n">
+        <v>30000</v>
       </c>
       <c r="F7" t="n">
-        <v>30000</v>
+        <v>396</v>
       </c>
       <c r="G7" t="n">
         <v>396</v>
       </c>
-      <c r="H7" t="n">
-        <v>396</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>20</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>95040</v>
       </c>
       <c r="N7" t="n">
-        <v>95040</v>
-      </c>
-      <c r="O7" t="n">
         <v>3.168</v>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>간병인(요양병원)</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>간병인</t>
+          <t>가입후 20년 미만 100%, 가입후 20년 이상 200%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>가입후 20년 미만/가입후 20년 이상</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>상해로 요양병원 1일 이상 입원 시 간병인 사용에 따라 일당 지급. 20년 미만 100%, 20년 이상 200% 지급, 최대 180일.</t>
+          <t>상해로 1일 이상 요양병원 입원시 간병인 사용에 따라 일당 지급. 20년 미만 100%, 20년 이상 200% 할증 지급, 최대 180일.</t>
         </is>
       </c>
     </row>
@@ -990,56 +955,51 @@
 ※ 1일당 간병인 사용금액은 연속적인 간병인 사용일마다 총 사용금액을 총 사용일수로 나눈 금액으로 판단함</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E8" t="n">
+        <v>150000</v>
       </c>
       <c r="F8" t="n">
-        <v>150000</v>
+        <v>26733</v>
       </c>
       <c r="G8" t="n">
-        <v>26733</v>
+        <v>18240</v>
       </c>
       <c r="H8" t="n">
-        <v>18240</v>
-      </c>
-      <c r="I8" t="n">
         <v>8493</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>20</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>6415920</v>
       </c>
       <c r="N8" t="n">
-        <v>6415920</v>
-      </c>
-      <c r="O8" t="n">
         <v>42.7728</v>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>간병인(요양병원)</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>간병인</t>
+          <t>가입후 20년 미만 50%, 가입후 20년 이상 100%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1일당</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>질병으로 1일 이상 입원 시 간병인 사용에 따라 일당 지급. 7만원 미만 50% 또는 100%, 7만원 이상 100% 또는 200% 지급, 최대 180일.</t>
+          <t>질병으로 병·의원(요양병원 제외) 등에 1일이상 계속 입원시 간병인 사용에 따라 일당 지급. 7만원 미만 50%, 7만원 이상 100% 할증 지급, 최대 180일.</t>
         </is>
       </c>
     </row>
@@ -1064,56 +1024,51 @@
           <t>보험기간 중 질병으로 요양병원에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간병인을 사용한 경우 가입후 20년 미만 시 가입금액의 100% 를 지급, 가입후 20년 이상 시 가입금액의 200%를 지급(180일을 한도로 간병인 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E9" t="n">
+        <v>30000</v>
       </c>
       <c r="F9" t="n">
-        <v>30000</v>
+        <v>10338</v>
       </c>
       <c r="G9" t="n">
-        <v>10338</v>
+        <v>7131</v>
       </c>
       <c r="H9" t="n">
-        <v>7131</v>
-      </c>
-      <c r="I9" t="n">
         <v>3207</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>20</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>20</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>2481120</v>
       </c>
       <c r="N9" t="n">
-        <v>2481120</v>
-      </c>
-      <c r="O9" t="n">
         <v>82.70399999999999</v>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>간병인(요양병원)</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>간병인</t>
+          <t>가입후 20년 미만 100%, 가입후 20년 이상 200%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>가입후 20년 미만/가입후 20년 이상</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>질병으로 요양병원 1일 이상 입원 시 간병인 사용에 따라 일당 지급. 20년 미만 100%, 20년 이상 200% 지급, 최대 180일.</t>
+          <t>질병으로 요양병원에 1일이상 계속 입원시 간병인 사용에 따라 일당 지급. 20년 미만 100%, 20년 이상 200% 할증 지급, 최대 180일.</t>
         </is>
       </c>
     </row>
@@ -1138,54 +1093,49 @@
           <t>본인 및 약관에 정한 가족의 일상생활 및 보험증권에 기재된 주택의 소유, 사용 또는 관리로 인한 사고로 타인의 신체의 피해(대인) 또는 재물의 손해 (대물)에 대한 법률상 배상책임을 부담함으로써 입은 손해 발생시 가입금액 을 한도로 보상</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E10" t="n">
+        <v>100000000</v>
       </c>
       <c r="F10" t="n">
-        <v>100000000</v>
+        <v>1154</v>
       </c>
       <c r="G10" t="n">
         <v>1154</v>
       </c>
-      <c r="H10" t="n">
-        <v>1154</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>20</v>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>20</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>갱신</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>276960</v>
+      </c>
       <c r="N10" t="n">
-        <v>276960</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.0027696</v>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>사고</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>사고</t>
+          <t>1사고당</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1사고당</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>법률상 배상책임 발생시 가입금액 한도로 보상</t>
+          <t>본인 및 가족의 일상생활 및 주택 관련 사고 발생 시 가입금액 한도로 보상</t>
         </is>
       </c>
     </row>
@@ -1213,54 +1163,49 @@
 ※ 특정암은 갑상선암, 전립선암임</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E11" t="n">
+        <v>20000000</v>
       </c>
       <c r="F11" t="n">
-        <v>20000000</v>
+        <v>1120</v>
       </c>
       <c r="G11" t="n">
         <v>1120</v>
       </c>
-      <c r="H11" t="n">
-        <v>1120</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>10</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>갱신</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>134400</v>
+      </c>
       <c r="N11" t="n">
-        <v>134400</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.00672</v>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>암(특정암 제외)</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>암(특정암 제외)</t>
+          <t>최초 1회</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>최초 1회</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>암(특정암 제외) 진단 후 다빈치 수술 시 가입금액 지급, 보장개시 90일 후, 초기 감액 있음. (특정암: 갑상선암, 전립선암)</t>
+          <t>암(특정암 제외) 진단 후 다빈치 수술 시 가입금액 지급, 보장개시일 90일 후, 최초 180일 내 25% 감액, 1년 내 50% 감액. 특정암: 갑상선암, 전립선암</t>
         </is>
       </c>
     </row>
@@ -1287,52 +1232,47 @@
 ※ 최초 보험가입후 180일 미만에 보험금 지급사유가 발생한 경우 가입금 액의 75% 감액 지급(25%지급), 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급함</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E12" t="n">
+        <v>10000000</v>
       </c>
       <c r="F12" t="n">
-        <v>10000000</v>
+        <v>200</v>
       </c>
       <c r="G12" t="n">
         <v>200</v>
       </c>
-      <c r="H12" t="n">
-        <v>200</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>10</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>갱신</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>24000</v>
+      </c>
       <c r="N12" t="n">
-        <v>24000</v>
-      </c>
-      <c r="O12" t="n">
         <v>0.0024</v>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>갑상선암, 전립선암</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>갑상선암, 전립선암</t>
+          <t>최초 1회</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
         <is>
           <t>특정암 진단 후 다빈치 수술 시 가입금액 지급, 보장개시 90일 후, 초기 감액 있음.</t>
         </is>
@@ -1359,52 +1299,47 @@
           <t>※ 1사고당 자기부담금 : 대인 없음, 대물누수사고 50만원, 대물누수사고외 20만원</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E13" t="n">
+        <v>500000</v>
       </c>
       <c r="F13" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>갱신</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>20</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>갱신</t>
-        </is>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>사고</t>
+        </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>사고</t>
+          <t>1사고당</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
-        <is>
-          <t>1사고당</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
         <is>
           <t>1사고당 자기부담금: 대인 없음, 대물누수 50만원, 기타 대물 20만원</t>
         </is>
@@ -1432,54 +1367,49 @@
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E14" t="n">
+        <v>100000</v>
       </c>
       <c r="F14" t="n">
-        <v>100000</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
-      </c>
-      <c r="I14" t="n">
         <v>7</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>20</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>5280</v>
       </c>
       <c r="N14" t="n">
-        <v>5280</v>
-      </c>
-      <c r="O14" t="n">
         <v>0.0528</v>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>생활질병</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>19대 생활질병</t>
+          <t>수술당 1회</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
-        <is>
-          <t>수술당 1회</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
         <is>
           <t>19대 생활질병 수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
         </is>
@@ -1507,54 +1437,49 @@
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E15" t="n">
+        <v>1000000</v>
       </c>
       <c r="F15" t="n">
-        <v>1000000</v>
+        <v>704</v>
       </c>
       <c r="G15" t="n">
-        <v>704</v>
+        <v>482</v>
       </c>
       <c r="H15" t="n">
-        <v>482</v>
-      </c>
-      <c r="I15" t="n">
         <v>222</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>20</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>168960</v>
       </c>
       <c r="N15" t="n">
-        <v>168960</v>
-      </c>
-      <c r="O15" t="n">
         <v>0.16896</v>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>주요질병</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>22대 주요질병</t>
+          <t>수술당 1회</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
-        <is>
-          <t>수술당 1회</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
         <is>
           <t>22대 주요질병 수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
         </is>
@@ -1582,54 +1507,49 @@
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E16" t="n">
+        <v>500000</v>
       </c>
       <c r="F16" t="n">
-        <v>500000</v>
+        <v>275</v>
       </c>
       <c r="G16" t="n">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="H16" t="n">
-        <v>188</v>
-      </c>
-      <c r="I16" t="n">
         <v>87</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>20</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>66000</v>
       </c>
       <c r="N16" t="n">
-        <v>66000</v>
-      </c>
-      <c r="O16" t="n">
         <v>0.132</v>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>갑상선질환, 고혈압 및 당뇨병</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>갑상선질환, 고혈압 및 당뇨병</t>
+          <t>수술당 1회</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
-        <is>
-          <t>수술당 1회</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
         <is>
           <t>갑상선질환, 고혈압 및 당뇨병 수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
         </is>
@@ -1658,54 +1578,49 @@
 ※ 단, 수술 중 비관혈수술과 관혈수술이 동시에 행해진 경우에는 관혈수술 비만 지급</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E17" t="n">
+        <v>20000000</v>
       </c>
       <c r="F17" t="n">
-        <v>20000000</v>
+        <v>7320</v>
       </c>
       <c r="G17" t="n">
         <v>7320</v>
       </c>
-      <c r="H17" t="n">
-        <v>7320</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>20</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1756800</v>
       </c>
       <c r="N17" t="n">
-        <v>1756800</v>
-      </c>
-      <c r="O17" t="n">
         <v>0.08784</v>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>뇌질환, 심질환, 간·췌장질환 및 폐질환</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>뇌질환, 심질환, 간·췌장질환 및 폐질환</t>
+          <t>수술당 1회</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>수술당 1회</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>뇌, 심, 간·췌장, 폐질환 관혈수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
+          <t>뇌질환, 심질환, 간·췌장질환 및 폐질환 관혈수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
         </is>
       </c>
     </row>
@@ -1732,54 +1647,49 @@
 ※ 단, 수술 중 비관혈수술과 관혈수술이 동시에 행해진 경우에는 관혈수술 비만 지급</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E18" t="n">
+        <v>10000000</v>
       </c>
       <c r="F18" t="n">
-        <v>10000000</v>
+        <v>2110</v>
       </c>
       <c r="G18" t="n">
         <v>2110</v>
       </c>
-      <c r="H18" t="n">
-        <v>2110</v>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>20</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>506400</v>
       </c>
       <c r="N18" t="n">
-        <v>506400</v>
-      </c>
-      <c r="O18" t="n">
         <v>0.05064</v>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>뇌질환, 심질환, 간·췌장질환 및 폐질환</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>뇌질환, 심질환, 간·췌장질환 및 폐질환</t>
+          <t>수술당 1회</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>수술당 1회</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>뇌, 심, 간·췌장, 폐질환 비관혈수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
+          <t>뇌질환, 심질환, 간·췌장질환 및 폐질환 비관혈수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
         </is>
       </c>
     </row>
@@ -1805,54 +1715,49 @@
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E19" t="n">
+        <v>200000</v>
       </c>
       <c r="F19" t="n">
-        <v>200000</v>
+        <v>3419</v>
       </c>
       <c r="G19" t="n">
-        <v>3419</v>
+        <v>2322</v>
       </c>
       <c r="H19" t="n">
-        <v>2322</v>
-      </c>
-      <c r="I19" t="n">
         <v>1097</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>20</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>820560</v>
       </c>
       <c r="N19" t="n">
-        <v>820560</v>
-      </c>
-      <c r="O19" t="n">
         <v>4.1028</v>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>62대 생활질병</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>62대 생활질병</t>
+          <t>수술당 1회</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
-        <is>
-          <t>수술당 1회</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
         <is>
           <t>62대 생활질병 수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
         </is>
@@ -1880,58 +1785,53 @@
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E20" t="n">
+        <v>200000</v>
       </c>
       <c r="F20" t="n">
-        <v>200000</v>
+        <v>124</v>
       </c>
       <c r="G20" t="n">
         <v>124</v>
       </c>
-      <c r="H20" t="n">
-        <v>124</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>20</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>29760</v>
       </c>
       <c r="N20" t="n">
-        <v>29760</v>
-      </c>
-      <c r="O20" t="n">
         <v>0.1488</v>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>체외충격파쇄석술(급여) 치료, 제왕절개만출술(급여)</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>체외충격파쇄석술(급여), 제왕절개만출술(급여), 요실금</t>
+          <t>각각 연간 1회한</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>체외충격파쇄석술(급여), 제왕절개만출술(급여), 요실금 수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
+          <t>체외충격파쇄석술(급여) 치료, 제왕절개만출술(급여) 수술 및 요실금 수술(급여) 시 가입금액 지급, 1년 미만 50% 감액.</t>
         </is>
       </c>
     </row>
@@ -1957,56 +1857,51 @@
 ※ 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E21" t="n">
+        <v>200000</v>
       </c>
       <c r="F21" t="n">
-        <v>200000</v>
+        <v>124</v>
       </c>
       <c r="G21" t="n">
         <v>124</v>
       </c>
-      <c r="H21" t="n">
-        <v>124</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>20</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>20</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>29760</v>
       </c>
       <c r="N21" t="n">
-        <v>29760</v>
-      </c>
-      <c r="O21" t="n">
         <v>0.1488</v>
       </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>선천성이상 질병</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>선천성이상 질병</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
-        <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
         <is>
           <t>선천성이상 질병 수술 시 가입금액 지급, 1년 미만 50% 감액.</t>
         </is>
@@ -2033,52 +1928,47 @@
           <t>상해사고로 약관에 정한 5대골절로 수술받은 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E22" t="n">
+        <v>500000</v>
       </c>
       <c r="F22" t="n">
-        <v>500000</v>
+        <v>80</v>
       </c>
       <c r="G22" t="n">
         <v>80</v>
       </c>
-      <c r="H22" t="n">
-        <v>80</v>
-      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>20</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>19200</v>
       </c>
       <c r="N22" t="n">
-        <v>19200</v>
-      </c>
-      <c r="O22" t="n">
         <v>0.0384</v>
       </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>5대골절 수술</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>5대골절 수술</t>
+          <t>수술받은 경우</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
-        <is>
-          <t>수술받은 경우</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
         <is>
           <t>5대 골절 수술 시 가입금액 지급</t>
         </is>
@@ -2106,54 +1996,49 @@
 ※ 최초 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E23" t="n">
+        <v>1000000</v>
       </c>
       <c r="F23" t="n">
-        <v>1000000</v>
+        <v>170</v>
       </c>
       <c r="G23" t="n">
         <v>170</v>
       </c>
-      <c r="H23" t="n">
-        <v>170</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>20</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>20</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>40800</v>
       </c>
       <c r="N23" t="n">
-        <v>40800</v>
-      </c>
-      <c r="O23" t="n">
         <v>0.0408</v>
       </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>갑상선기능저하증</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>갑상선기능저하증</t>
+          <t>최초 1회</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>최초 1회</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>갑상선기능저하증 진단 후 가입금액 지급, 1년 미만 50% 감액</t>
+          <t>갑상선기능저하증 진단 시 가입금액 지급, 1년 미만 50% 감액</t>
         </is>
       </c>
     </row>
@@ -2179,54 +2064,49 @@
 ※ 최초 보험가입후 1년 미만에 보험금 지급사유가 발생한 경우 50% 감액 지급</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E24" t="n">
+        <v>2000000</v>
       </c>
       <c r="F24" t="n">
-        <v>2000000</v>
+        <v>260</v>
       </c>
       <c r="G24" t="n">
         <v>260</v>
       </c>
-      <c r="H24" t="n">
-        <v>260</v>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>20</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>20</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>62400</v>
       </c>
       <c r="N24" t="n">
-        <v>62400</v>
-      </c>
-      <c r="O24" t="n">
         <v>0.0312</v>
       </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>갑상선기능항진증</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>갑상선기능항진증</t>
+          <t>최초 1회</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>최초 1회</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>갑상선기능항진증 진단 후 갑상선기능항진증 치료 받을 경우 가입금액 지급, 1년 미만 50% 감액</t>
+          <t>갑상선기능항진증 진단 및 치료 시 가입금액 지급, 1년 미만 50% 감액</t>
         </is>
       </c>
     </row>
@@ -2251,54 +2131,45 @@
           <t>상해사고로 약관에 정한 골절로 진단 확정된 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E25" t="n">
+        <v>100000</v>
       </c>
       <c r="F25" t="n">
-        <v>100000</v>
+        <v>898</v>
       </c>
       <c r="G25" t="n">
         <v>898</v>
       </c>
-      <c r="H25" t="n">
-        <v>898</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>20</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>20</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>215520</v>
       </c>
       <c r="N25" t="n">
-        <v>215520</v>
-      </c>
-      <c r="O25" t="n">
         <v>2.1552</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>골절</t>
         </is>
       </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>진단 확정된 경우</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>골절 진단시 가입금액 지급</t>
+          <t>골절 진단 시 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -2323,54 +2194,45 @@
           <t>상해사고로 약관에 정한 골절(치아파절(깨짐, 부러짐) 제외)로 진단 확정된 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E26" t="n">
+        <v>200000</v>
       </c>
       <c r="F26" t="n">
-        <v>200000</v>
+        <v>1140</v>
       </c>
       <c r="G26" t="n">
         <v>1140</v>
       </c>
-      <c r="H26" t="n">
-        <v>1140</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>20</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>273600</v>
       </c>
       <c r="N26" t="n">
-        <v>273600</v>
-      </c>
-      <c r="O26" t="n">
         <v>1.368</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>골절(치아파절 제외)</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>진단 확정된 경우</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>골절(치아파절 제외) 진단시 가입금액 지급</t>
+          <t>골절(치아파절 제외) 진단 시 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -2398,54 +2260,49 @@
 ※ 기타피부암 및 갑상선암 특정치료는 수술, 항암방사선치료, 항암약물치 료 및 말기암 환자에 대한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E27" t="n">
+        <v>1000000</v>
       </c>
       <c r="F27" t="n">
-        <v>1000000</v>
+        <v>130</v>
       </c>
       <c r="G27" t="n">
         <v>130</v>
       </c>
-      <c r="H27" t="n">
-        <v>130</v>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>20</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>31200</v>
       </c>
       <c r="N27" t="n">
-        <v>31200</v>
-      </c>
-      <c r="O27" t="n">
         <v>0.0312</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>기타피부암, 갑상선암</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>연간 1회</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>기타피부암 또는 갑상선암 진단 후 특정치료 받을 시 가입금액 지급</t>
+          <t>기타피부암 또는 갑상선암 진단 후 특정치료 시 가입금액 지급. 보장개시일로부터 5년까지의 보험금 지급대상 기간 내 연간 1회한</t>
         </is>
       </c>
     </row>
@@ -2471,54 +2328,49 @@
 ※ 기타피부암 또는 갑상선암의 보장개시일은 최초 계약일 또는 부활(효력 회복)일부터 90일이 지난 날의 다음날임</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E28" t="n">
+        <v>100000</v>
       </c>
       <c r="F28" t="n">
-        <v>100000</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
         <v>12</v>
       </c>
-      <c r="H28" t="n">
-        <v>12</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>20</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>20</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>2880</v>
       </c>
       <c r="N28" t="n">
-        <v>2880</v>
-      </c>
-      <c r="O28" t="n">
         <v>0.0288</v>
       </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>기타피부암, 갑상선암</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>기타피부암, 갑상선암</t>
+          <t>최초 1회한</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>최초 1회</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>기타피부암 또는 갑상선암 진단시 최초 1회 가입금액 지급</t>
+          <t>기타피부암 또는 갑상선암 진단 시 가입금액 지급, 최초 1회한</t>
         </is>
       </c>
     </row>
@@ -2544,54 +2396,49 @@
 ※ 부목치료(Splint Cast)는 제외</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E29" t="n">
+        <v>100000</v>
       </c>
       <c r="F29" t="n">
-        <v>100000</v>
+        <v>123</v>
       </c>
       <c r="G29" t="n">
         <v>123</v>
       </c>
-      <c r="H29" t="n">
-        <v>123</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>20</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>20</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>29520</v>
       </c>
       <c r="N29" t="n">
-        <v>29520</v>
-      </c>
-      <c r="O29" t="n">
         <v>0.2952</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>상해 또는 질병</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>상해, 질병</t>
+          <t>1회당</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>치료시</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>상해 또는 질병으로 깁스치료 시 가입금액 지급, 부목치료 제외</t>
+          <t>상해 또는 질병으로 깁스치료 받을 시 가입금액 지급. 부목치료 제외</t>
         </is>
       </c>
     </row>
@@ -2619,54 +2466,49 @@
 ※ 기타피부암, 갑상선암, 대장점막내암, 제자리암 및 경계성종양은 납입면 제사유에서 제외됨</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E30" t="n">
+        <v>100000</v>
       </c>
       <c r="F30" t="n">
-        <v>100000</v>
+        <v>168</v>
       </c>
       <c r="G30" t="n">
         <v>168</v>
       </c>
-      <c r="H30" t="n">
-        <v>168</v>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>20</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>20</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>40320</v>
       </c>
       <c r="N30" t="n">
-        <v>40320</v>
-      </c>
-      <c r="O30" t="n">
         <v>0.4032</v>
       </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>상해, 암, 뇌졸중, 급성심근경색증, 중대 화상·부식, 뇌·내장 손상 수술</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>상해, 암, 뇌졸중, 심근경색증, 화상부식, 뇌내장손상수술</t>
+          <t>최초 1회한</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>최초 1회</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>80%이상 후유장해, 암, 뇌졸중, 심근경색증, 화상부식, 뇌·내장손상 수술시 가입금액 지급</t>
+          <t>상해로 80%이상 후유장해 등 진단 시 가입금액 지급, 암, 뇌졸중, 급성심근경색증 등 진단 또는 수술 시 가입금액 지급, 최초 1회한</t>
         </is>
       </c>
     </row>
@@ -2692,58 +2534,53 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E31" t="n">
+        <v>300000</v>
       </c>
       <c r="F31" t="n">
-        <v>300000</v>
+        <v>546</v>
       </c>
       <c r="G31" t="n">
         <v>546</v>
       </c>
-      <c r="H31" t="n">
-        <v>546</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>20</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>20</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>131040</v>
       </c>
       <c r="N31" t="n">
-        <v>131040</v>
-      </c>
-      <c r="O31" t="n">
         <v>0.4368</v>
       </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>상해</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>상해</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>수술시</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>상해 치료시 1종 수술 및 시술 받을 경우 가입금액 지급, 1회당 1회 보장</t>
+          <t>상해의 1종 수술 및 시술 직접 목적으로 받을 시 가입금액 지급, 1회의 입원 또는 통원당 1회의 수술 및 시술에 한하여 보장</t>
         </is>
       </c>
     </row>
@@ -2769,58 +2606,53 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E32" t="n">
+        <v>300000</v>
       </c>
       <c r="F32" t="n">
-        <v>300000</v>
+        <v>546</v>
       </c>
       <c r="G32" t="n">
         <v>546</v>
       </c>
-      <c r="H32" t="n">
-        <v>546</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>20</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>20</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>131040</v>
       </c>
       <c r="N32" t="n">
-        <v>131040</v>
-      </c>
-      <c r="O32" t="n">
         <v>0.4368</v>
       </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>상해의 치료를 직접적인 목적으로 2종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>상해</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>상해의 치료를 직접적인 목적으로 약관에서 정한 2종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한), 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>약관에서 정한 2종 수술 및 시술을 받은 경우, 수술시술코드당 연간 1회한 가입금액 지급. 1회의 입원 또는 통원당 1회의 수술 및 시술에 한하여 보장</t>
         </is>
       </c>
     </row>
@@ -2846,58 +2678,53 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E33" t="n">
+        <v>450000</v>
       </c>
       <c r="F33" t="n">
-        <v>450000</v>
+        <v>546</v>
       </c>
       <c r="G33" t="n">
         <v>546</v>
       </c>
-      <c r="H33" t="n">
-        <v>546</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>20</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>20</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>131040</v>
       </c>
       <c r="N33" t="n">
-        <v>131040</v>
-      </c>
-      <c r="O33" t="n">
         <v>0.2912</v>
       </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>상해의 치료를 직접적인 목적으로 3종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>상해</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>상해의 치료를 직접적인 목적으로 약관에서 정한 3종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한), 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>약관에서 정한 3종 수술 및 시술을 받은 경우, 수술시술코드당 연간 1회한 가입금액 지급. 1회의 입원 또는 통원당 1회의 수술 및 시술에 한하여 보장</t>
         </is>
       </c>
     </row>
@@ -2923,58 +2750,53 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E34" t="n">
+        <v>450000</v>
       </c>
       <c r="F34" t="n">
-        <v>450000</v>
+        <v>546</v>
       </c>
       <c r="G34" t="n">
         <v>546</v>
       </c>
-      <c r="H34" t="n">
-        <v>546</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>20</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>20</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>131040</v>
       </c>
       <c r="N34" t="n">
-        <v>131040</v>
-      </c>
-      <c r="O34" t="n">
         <v>0.2912</v>
       </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>상해의 치료를 직접적인 목적으로 4종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>상해</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>상해의 치료를 직접적인 목적으로 약관에서 정한 4종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한), 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>약관에서 정한 4종 수술 및 시술을 받은 경우, 수술시술코드당 연간 1회한 가입금액 지급. 1회의 입원 또는 통원당 1회의 수술 및 시술에 한하여 보장</t>
         </is>
       </c>
     </row>
@@ -3000,58 +2822,53 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E35" t="n">
+        <v>5000000</v>
       </c>
       <c r="F35" t="n">
-        <v>5000000</v>
+        <v>267</v>
       </c>
       <c r="G35" t="n">
         <v>267</v>
       </c>
-      <c r="H35" t="n">
-        <v>267</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>20</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>20</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>64080</v>
       </c>
       <c r="N35" t="n">
-        <v>64080</v>
-      </c>
-      <c r="O35" t="n">
         <v>0.012816</v>
       </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>상해의 치료를 직접적인 목적으로 5종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>상해</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>상해의 치료를 직접적인 목적으로 약관에서 정한 5종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한), 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>약관에서 정한 5종 수술 및 시술을 받은 경우, 수술시술코드당 연간 1회한 가입금액 지급. 1회의 입원 또는 통원당 1회의 수술 및 시술에 한하여 보장</t>
         </is>
       </c>
     </row>
@@ -3077,58 +2894,53 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E36" t="n">
+        <v>10000000</v>
       </c>
       <c r="F36" t="n">
-        <v>10000000</v>
+        <v>266</v>
       </c>
       <c r="G36" t="n">
         <v>266</v>
       </c>
-      <c r="H36" t="n">
-        <v>266</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>20</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>20</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>63840</v>
       </c>
       <c r="N36" t="n">
-        <v>63840</v>
-      </c>
-      <c r="O36" t="n">
         <v>0.006384</v>
       </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>상해의 치료를 직접적인 목적으로 6종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>상해</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>상해의 치료를 직접적인 목적으로 약관에서 정한 6종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한), 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>약관에서 정한 6종 수술 및 시술을 받은 경우, 수술시술코드당 연간 1회한 가입금액 지급. 1회의 입원 또는 통원당 1회의 수술 및 시술에 한하여 보장</t>
         </is>
       </c>
     </row>
@@ -3154,58 +2966,53 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E37" t="n">
+        <v>15000000</v>
       </c>
       <c r="F37" t="n">
-        <v>15000000</v>
+        <v>266</v>
       </c>
       <c r="G37" t="n">
         <v>266</v>
       </c>
-      <c r="H37" t="n">
-        <v>266</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>20</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>20</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>63840</v>
       </c>
       <c r="N37" t="n">
-        <v>63840</v>
-      </c>
-      <c r="O37" t="n">
         <v>0.004256</v>
       </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>7종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>상해</t>
+          <t>수술시술코드당 연간1회</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>상해의 치료를 위해 약관에서 정한 7종 수술 및 시술을 받을 경우 가입금액 지급, 1회의 입원 또는 통원당 1회 보장</t>
+          <t>7종 수술 및 시술 시 가입금액 지급 (1회의 입원 또는 1회의 통원에 한하여 보장)</t>
         </is>
       </c>
     </row>
@@ -3231,58 +3038,53 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E38" t="n">
+        <v>25000000</v>
       </c>
       <c r="F38" t="n">
-        <v>25000000</v>
+        <v>266</v>
       </c>
       <c r="G38" t="n">
         <v>266</v>
       </c>
-      <c r="H38" t="n">
-        <v>266</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>20</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>20</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>63840</v>
       </c>
       <c r="N38" t="n">
-        <v>63840</v>
-      </c>
-      <c r="O38" t="n">
         <v>0.0025536</v>
       </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>8종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>상해</t>
+          <t>수술시술코드당 연간1회</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>상해의 치료를 위해 약관에서 정한 8종 수술 및 시술을 받을 경우 가입금액 지급, 1회의 입원 또는 통원당 1회 보장</t>
+          <t>8종 수술 및 시술 시 가입금액 지급 (1회의 입원 또는 1회의 통원에 한하여 보장)</t>
         </is>
       </c>
     </row>
@@ -3307,54 +3109,49 @@
           <t>상해사고로 약관에 정한 골절로 수술받은 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E39" t="n">
+        <v>200000</v>
       </c>
       <c r="F39" t="n">
-        <v>200000</v>
+        <v>372</v>
       </c>
       <c r="G39" t="n">
         <v>372</v>
       </c>
-      <c r="H39" t="n">
-        <v>372</v>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>20</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>20</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>89280</v>
       </c>
       <c r="N39" t="n">
-        <v>89280</v>
-      </c>
-      <c r="O39" t="n">
         <v>0.4464</v>
       </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>골절</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>골절</t>
+          <t>수술받은 경우</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>수술받은 경우</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>골절로 수술받은 경우 가입금액 지급</t>
+          <t>골절 수술 시 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -3379,54 +3176,49 @@
           <t>상해사고로 사망한 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E40" t="n">
+        <v>50000000</v>
       </c>
       <c r="F40" t="n">
-        <v>50000000</v>
+        <v>2550</v>
       </c>
       <c r="G40" t="n">
         <v>2550</v>
       </c>
-      <c r="H40" t="n">
-        <v>2550</v>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>20</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>20</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>612000</v>
       </c>
       <c r="N40" t="n">
-        <v>612000</v>
-      </c>
-      <c r="O40" t="n">
         <v>0.01224</v>
       </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>사망</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>사망</t>
+          <t>한번</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>한 번</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>상해사고로 사망한 경우 가입금액 지급</t>
+          <t>상해로 사망한 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -3451,54 +3243,49 @@
           <t>상해사고로 병원(요양병원 제외)에 1일이상 계속 입원하여 치료를 받으며, 약관에 정한 간호·간병통합서비스를 사용한 경우 가입금액 지급(180일을 한도로 간호·간병통합서비스 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E41" t="n">
+        <v>70000</v>
       </c>
       <c r="F41" t="n">
-        <v>70000</v>
+        <v>805</v>
       </c>
       <c r="G41" t="n">
         <v>805</v>
       </c>
-      <c r="H41" t="n">
-        <v>805</v>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>20</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>20</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>193200</v>
       </c>
       <c r="N41" t="n">
-        <v>193200</v>
-      </c>
-      <c r="O41" t="n">
         <v>2.76</v>
       </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>간호·간병통합서비스</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>간호·간병통합서비스</t>
+          <t>1일 일당</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1일당</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>상해로 입원하여 간호·간병통합서비스를 받은 경우 가입금액 지급, 최대 180일</t>
+          <t>병원 입원시(요양병원 제외) 약관에서 정한 간호·간병통합서비스 사용시 일당지급 (최대 180일)</t>
         </is>
       </c>
     </row>
@@ -3523,54 +3310,49 @@
           <t>상해사고로 후유장해가 발생한 경우 가입금액 한도로 지급</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E42" t="n">
+        <v>20000000</v>
       </c>
       <c r="F42" t="n">
-        <v>20000000</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
         <v>1000</v>
       </c>
-      <c r="H42" t="n">
-        <v>1000</v>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>20</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>20</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>240000</v>
       </c>
       <c r="N42" t="n">
-        <v>240000</v>
-      </c>
-      <c r="O42" t="n">
         <v>0.012</v>
       </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>후유장해</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>후유장해</t>
+          <t>한도로</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>한도로</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>상해로 후유장해 발생 시 가입금액 한도로 지급</t>
+          <t>상해사고로 후유장해 발생 시 가입금액 한도로 지급</t>
         </is>
       </c>
     </row>
@@ -3595,54 +3377,49 @@
           <t>상해사고로 약관에 정한 아킬레스힘줄손상으로 진단확정되어 수술을 받은 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E43" t="n">
+        <v>1000000</v>
       </c>
       <c r="F43" t="n">
-        <v>1000000</v>
+        <v>60</v>
       </c>
       <c r="G43" t="n">
         <v>60</v>
       </c>
-      <c r="H43" t="n">
-        <v>60</v>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>20</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>20</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>14400</v>
       </c>
       <c r="N43" t="n">
-        <v>14400</v>
-      </c>
-      <c r="O43" t="n">
         <v>0.0144</v>
       </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>아킬레스힘줄손상</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>아킬레스힘줄손상</t>
+          <t>수술받은 경우</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>수술받은 경우</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>상해로 아킬레스힘줄손상 수술 시 가입금액 지급</t>
+          <t>상해사고로 아킬레스힘줄손상 수술 받은 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -3668,54 +3445,49 @@
 ※ 암의 보장개시일은 최초 계약일 또는 부활(효력회복)일부터 90일이 지난 날의 다음날임</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E44" t="n">
+        <v>100000</v>
       </c>
       <c r="F44" t="n">
-        <v>100000</v>
+        <v>115</v>
       </c>
       <c r="G44" t="n">
         <v>115</v>
       </c>
-      <c r="H44" t="n">
-        <v>115</v>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>20</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>20</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>27600</v>
       </c>
       <c r="N44" t="n">
-        <v>27600</v>
-      </c>
-      <c r="O44" t="n">
         <v>0.276</v>
       </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>암</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>암</t>
+          <t>최초 1회한</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>최초 1회</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>암 진단 후 최초 1회 가입금액 지급, 보장개시 90일 후</t>
+          <t>암 진단 확정 시 가입금액 지급, 최초 1회한</t>
         </is>
       </c>
     </row>
@@ -3743,54 +3515,49 @@
 ※ 암(기타피부암 및 갑상선암 제외) 특정치료는 수술, 항암방사선치료, 항 암약물치료 및 말기암 환자에 대한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E45" t="n">
+        <v>10000000</v>
       </c>
       <c r="F45" t="n">
-        <v>10000000</v>
+        <v>14630</v>
       </c>
       <c r="G45" t="n">
         <v>14630</v>
       </c>
-      <c r="H45" t="n">
-        <v>14630</v>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>20</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>20</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>3511200</v>
       </c>
       <c r="N45" t="n">
-        <v>3511200</v>
-      </c>
-      <c r="O45" t="n">
         <v>0.35112</v>
       </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>암(기타피부암 및 갑상선암 제외)</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>연간 1회</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>암 진단 후 특정치료 받을 경우 연간 1회 가입금액 지급, 보장개시 90일 후, 지급기간 5년까지</t>
+          <t>암 진단 후 특정치료 받은 경우 가입금액 지급, 연간 1회한</t>
         </is>
       </c>
     </row>
@@ -3816,54 +3583,49 @@
 ※ 계약내용이 변경(보험가입금액의 변경, 직업의 변경 등)되는 경우 이 특 별약관의 가입금액이 변경될 수 있습니다.</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E46" t="n">
+        <v>66000</v>
       </c>
       <c r="F46" t="n">
-        <v>66000</v>
+        <v>488</v>
       </c>
       <c r="G46" t="n">
         <v>488</v>
       </c>
-      <c r="H46" t="n">
-        <v>488</v>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>20년만기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>20</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="K46" t="n">
+        <v>20</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>117120</v>
       </c>
       <c r="N46" t="n">
-        <v>117120</v>
-      </c>
-      <c r="O46" t="n">
         <v>1.774545454545455</v>
       </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>기타피부암, 갑상선암, 대장점막내암, 제자리암, 경계성종양</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>기타피부암, 갑상선암, 대장점막내암, 제자리암, 경계성종양</t>
+          <t>차회 이후 이 계약의 보험료 납입시마다</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>차회 이후</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>기타피부암, 갑상선암, 대장점막내암, 제자리암, 경계성종양 진단 시 차회 이후 보험료 납입 시 이 특별약관 가입금액 지원</t>
+          <t>특정 질병 진단 시 차회 이후 보험료 납입 시마다 특별약관 가입금액 지원</t>
         </is>
       </c>
     </row>
@@ -3888,54 +3650,49 @@
           <t>보험기간 중 응급실에 내원하여 약관에서 정한 아나필락시스(anaphylaxis) 로 진단 확정된 경우 가입금액 지급(연간 1회한)</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E47" t="n">
+        <v>2000000</v>
       </c>
       <c r="F47" t="n">
-        <v>2000000</v>
+        <v>200</v>
       </c>
       <c r="G47" t="n">
         <v>200</v>
       </c>
-      <c r="H47" t="n">
-        <v>200</v>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>20</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>20</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>48000</v>
       </c>
       <c r="N47" t="n">
-        <v>48000</v>
-      </c>
-      <c r="O47" t="n">
         <v>0.024</v>
       </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>아나필락시스</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>아나필락시스</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>연간 1회</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>응급실 내원 시 아나필락시스로 진단 확정 시 가입금액 지급</t>
+          <t>응급실에 내원하여 아나필락시스로 진단 확정된 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -3961,54 +3718,49 @@
 ※ 단, 약관에서 정한 고관절, 슬관절, 견관절에 한해 보장</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E48" t="n">
+        <v>2500000</v>
       </c>
       <c r="F48" t="n">
-        <v>2500000</v>
+        <v>775</v>
       </c>
       <c r="G48" t="n">
         <v>775</v>
       </c>
-      <c r="H48" t="n">
-        <v>775</v>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>20</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>20</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>186000</v>
       </c>
       <c r="N48" t="n">
-        <v>186000</v>
-      </c>
-      <c r="O48" t="n">
         <v>0.07439999999999999</v>
       </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>인공관절치환</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>인공관절치환</t>
+          <t>최초 1회한</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>최초 1회</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>상해 또는 질병으로 인공관절치환 수술 시 가입금액 지급 (고, 슬, 견관절에 한함)</t>
+          <t>상해 또는 질병으로 인공관절치환 수술을 받은 경우 가입금액 지급. 고관절, 슬관절, 견관절에 한해 보장</t>
         </is>
       </c>
     </row>
@@ -4036,54 +3788,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E49" t="n">
+        <v>10000000</v>
       </c>
       <c r="F49" t="n">
-        <v>10000000</v>
+        <v>387</v>
       </c>
       <c r="G49" t="n">
         <v>387</v>
       </c>
-      <c r="H49" t="n">
-        <v>387</v>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>20</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>20</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>92880</v>
       </c>
       <c r="N49" t="n">
-        <v>92880</v>
-      </c>
-      <c r="O49" t="n">
         <v>0.009287999999999999</v>
       </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>암, 기타피부암, 갑상선암</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>연간 1회</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>암, 기타피부암, 갑상선암 진단 후 암 특정치료 받을 경우 1억원 이상시 가입금액 지급</t>
+          <t>암, 기타피부암, 갑상선암 진단 후 암 특정치료를 받고 연간 총액 1억원 이상인 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4111,54 +3858,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E50" t="n">
+        <v>10000000</v>
       </c>
       <c r="F50" t="n">
-        <v>10000000</v>
+        <v>5449</v>
       </c>
       <c r="G50" t="n">
         <v>5449</v>
       </c>
-      <c r="H50" t="n">
-        <v>5449</v>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>20</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>20</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>1307760</v>
       </c>
       <c r="N50" t="n">
-        <v>1307760</v>
-      </c>
-      <c r="O50" t="n">
         <v>0.130776</v>
       </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>암, 기타피부암, 갑상선암</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>연간 1회</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>암, 기타피부암, 갑상선암 진단 후 암 특정치료 받을 경우 1천만원 이상시 가입금액 지급</t>
+          <t>암, 기타피부암, 갑상선암 진단 후 암 특정치료를 받고 연간 총액 1천만원 이상인 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4186,54 +3928,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E51" t="n">
+        <v>10000000</v>
       </c>
       <c r="F51" t="n">
-        <v>10000000</v>
+        <v>2390</v>
       </c>
       <c r="G51" t="n">
         <v>2390</v>
       </c>
-      <c r="H51" t="n">
-        <v>2390</v>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>20</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>20</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>573600</v>
       </c>
       <c r="N51" t="n">
-        <v>573600</v>
-      </c>
-      <c r="O51" t="n">
         <v>0.05736</v>
       </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>암, 기타피부암, 갑상선암</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>연간 1회</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>암, 기타피부암, 갑상선암 진단 후 암 특정치료 받을 경우 2천만원 이상시 가입금액 지급</t>
+          <t>암, 기타피부암, 갑상선암 진단 후 암 특정치료를 받고 연간 총액 2천만원 이상인 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4261,54 +3998,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E52" t="n">
+        <v>10000000</v>
       </c>
       <c r="F52" t="n">
-        <v>10000000</v>
+        <v>1581</v>
       </c>
       <c r="G52" t="n">
         <v>1581</v>
       </c>
-      <c r="H52" t="n">
-        <v>1581</v>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>20</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>20</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>379440</v>
       </c>
       <c r="N52" t="n">
-        <v>379440</v>
-      </c>
-      <c r="O52" t="n">
         <v>0.037944</v>
       </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>암, 기타피부암 또는 갑상선암</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>암, 기타피부암, 갑상선암으로 진단 후 3천만원 이상의 연간 암 특정치료비 발생 시 가입금액 지급</t>
+          <t>암 특정치료를 받아 연간 암 특정치료비 총액이 3천만원 이상인 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4336,54 +4068,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E53" t="n">
+        <v>10000000</v>
       </c>
       <c r="F53" t="n">
-        <v>10000000</v>
+        <v>1164</v>
       </c>
       <c r="G53" t="n">
         <v>1164</v>
       </c>
-      <c r="H53" t="n">
-        <v>1164</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>20</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>20</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>279360</v>
       </c>
       <c r="N53" t="n">
-        <v>279360</v>
-      </c>
-      <c r="O53" t="n">
         <v>0.027936</v>
       </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>암, 기타피부암 또는 갑상선암</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>암, 기타피부암, 갑상선암으로 진단 후 4천만원 이상의 연간 암 특정치료비 발생 시 가입금액 지급</t>
+          <t>암 특정치료를 받아 연간 암 특정치료비 총액이 4천만원 이상인 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4411,54 +4138,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E54" t="n">
+        <v>10000000</v>
       </c>
       <c r="F54" t="n">
-        <v>10000000</v>
+        <v>808</v>
       </c>
       <c r="G54" t="n">
         <v>808</v>
       </c>
-      <c r="H54" t="n">
-        <v>808</v>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>20</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>20</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>193920</v>
       </c>
       <c r="N54" t="n">
-        <v>193920</v>
-      </c>
-      <c r="O54" t="n">
         <v>0.019392</v>
       </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>암, 기타피부암 또는 갑상선암</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>암, 기타피부암, 갑상선암으로 진단 후 5천만원 이상의 연간 암 특정치료비 발생 시 가입금액 지급</t>
+          <t>암 특정치료를 받아 연간 암 특정치료비 총액이 5천만원 이상인 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4486,54 +4208,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E55" t="n">
+        <v>10000000</v>
       </c>
       <c r="F55" t="n">
-        <v>10000000</v>
+        <v>638</v>
       </c>
       <c r="G55" t="n">
         <v>638</v>
       </c>
-      <c r="H55" t="n">
-        <v>638</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>20</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>20</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>153120</v>
       </c>
       <c r="N55" t="n">
-        <v>153120</v>
-      </c>
-      <c r="O55" t="n">
         <v>0.015312</v>
       </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>암, 기타피부암 또는 갑상선암</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>암, 기타피부암, 갑상선암으로 진단 후 6천만원 이상의 연간 암 특정치료비 발생 시 가입금액 지급</t>
+          <t>암 특정치료를 받아 연간 암 특정치료비 총액이 6천만원 이상인 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4561,54 +4278,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E56" t="n">
+        <v>10000000</v>
       </c>
       <c r="F56" t="n">
-        <v>10000000</v>
+        <v>539</v>
       </c>
       <c r="G56" t="n">
         <v>539</v>
       </c>
-      <c r="H56" t="n">
-        <v>539</v>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>20</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>20</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>129360</v>
       </c>
       <c r="N56" t="n">
-        <v>129360</v>
-      </c>
-      <c r="O56" t="n">
         <v>0.012936</v>
       </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>암, 기타피부암 또는 갑상선암</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>암, 기타피부암, 갑상선암으로 진단 후 7천만원 이상의 연간 암 특정치료비 발생 시 가입금액 지급</t>
+          <t>암 특정치료를 받아 연간 암 특정치료비 총액이 7천만원 이상인 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4636,54 +4348,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E57" t="n">
+        <v>10000000</v>
       </c>
       <c r="F57" t="n">
-        <v>10000000</v>
+        <v>473</v>
       </c>
       <c r="G57" t="n">
         <v>473</v>
       </c>
-      <c r="H57" t="n">
-        <v>473</v>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>20</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>20</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>113520</v>
       </c>
       <c r="N57" t="n">
-        <v>113520</v>
-      </c>
-      <c r="O57" t="n">
         <v>0.011352</v>
       </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>암, 기타피부암 또는 갑상선암</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>암 특정치료비 총액 8천만원 이상의 암, 기타피부암, 갑상선암 진단 후 특정치료 받을 시 가입금액 지급</t>
+          <t>암, 기타피부암 또는 갑상선암 진단 후 특정치료를 받아 발생한 연간 암 특정치료비 총액이 8천만원 이상일 때 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4711,54 +4418,49 @@
 ※ 암 특정치료는 수술, 항암방사선치료, 항암약물치료 및 말기암 환자에 대 한 호스피스완화의료 치료를 말함</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E58" t="n">
+        <v>10000000</v>
       </c>
       <c r="F58" t="n">
-        <v>10000000</v>
+        <v>421</v>
       </c>
       <c r="G58" t="n">
         <v>421</v>
       </c>
-      <c r="H58" t="n">
-        <v>421</v>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>20</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>20</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>101040</v>
       </c>
       <c r="N58" t="n">
-        <v>101040</v>
-      </c>
-      <c r="O58" t="n">
         <v>0.010104</v>
       </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>암, 기타피부암 또는 갑상선암</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>암, 기타피부암, 갑상선암</t>
+          <t>연간 1회한</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>연간 1회한</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>암 특정치료비 총액 9천만원 이상의 암, 기타피부암, 갑상선암 진단 후 특정치료 받을 시 가입금액 지급</t>
+          <t>암, 기타피부암 또는 갑상선암 진단 후 특정치료를 받아 발생한 연간 암 특정치료비 총액이 9천만원 이상일 때 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4783,54 +4485,49 @@
           <t>상해사고로 신체 표면적으로 최소 20%이상의 3도 화상 또는 부식(화학약 품 등에 의한 피부손상)을 입은 경우 가입금액 지급(최초 1회한)</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E59" t="n">
+        <v>10000000</v>
       </c>
       <c r="F59" t="n">
-        <v>10000000</v>
+        <v>51</v>
       </c>
       <c r="G59" t="n">
         <v>51</v>
       </c>
-      <c r="H59" t="n">
-        <v>51</v>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>20</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>20</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>12240</v>
       </c>
       <c r="N59" t="n">
-        <v>12240</v>
-      </c>
-      <c r="O59" t="n">
         <v>0.001224</v>
       </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>화상</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>화상 또는 부식</t>
+          <t>최초 1회한</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>최초 1회한</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>신체 표면적으로 최소 20% 이상의 3도 화상 또는 부식을 입은 경우 가입금액 지급</t>
+          <t>신체 표면적으로 20%이상의 3도 화상 또는 부식을 입었을 때 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4856,60 +4553,55 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E60" t="n">
+        <v>300000</v>
       </c>
       <c r="F60" t="n">
-        <v>300000</v>
+        <v>3648</v>
       </c>
       <c r="G60" t="n">
-        <v>3648</v>
+        <v>2454</v>
       </c>
       <c r="H60" t="n">
-        <v>2454</v>
-      </c>
-      <c r="I60" t="n">
         <v>1194</v>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>20</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>20</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>875520</v>
       </c>
       <c r="N60" t="n">
-        <v>875520</v>
-      </c>
-      <c r="O60" t="n">
         <v>2.9184</v>
       </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>질병의 치료</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>질병</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>질병 치료를 위해 1종 수술 및 시술을 받을 시 가입금액 지급</t>
+          <t>질병의 치료를 목적으로 1종 수술 및 시술을 받았을 때 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -4935,60 +4627,55 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E61" t="n">
+        <v>300000</v>
       </c>
       <c r="F61" t="n">
-        <v>300000</v>
+        <v>3646</v>
       </c>
       <c r="G61" t="n">
-        <v>3646</v>
+        <v>2453</v>
       </c>
       <c r="H61" t="n">
-        <v>2453</v>
-      </c>
-      <c r="I61" t="n">
         <v>1193</v>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>20</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>20</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>875040</v>
       </c>
       <c r="N61" t="n">
-        <v>875040</v>
-      </c>
-      <c r="O61" t="n">
         <v>2.9168</v>
       </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>질병의 치료</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>질병</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>질병 치료를 위해 2종 수술 및 시술을 받을 시 가입금액 지급</t>
+          <t>질병의 치료를 목적으로 2종 수술 및 시술을 받았을 때 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -5014,60 +4701,55 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E62" t="n">
+        <v>450000</v>
       </c>
       <c r="F62" t="n">
-        <v>450000</v>
+        <v>3646</v>
       </c>
       <c r="G62" t="n">
-        <v>3646</v>
+        <v>2453</v>
       </c>
       <c r="H62" t="n">
-        <v>2453</v>
-      </c>
-      <c r="I62" t="n">
         <v>1193</v>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>20</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>20</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>875040</v>
       </c>
       <c r="N62" t="n">
-        <v>875040</v>
-      </c>
-      <c r="O62" t="n">
         <v>1.944533333333333</v>
       </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>3종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>3종 수술 및 시술</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>3종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한). 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>질병 치료 위해 3종 수술 및 시술 시 가입금액 지급. 1회의 입원 또는 통원당 1회 보장</t>
         </is>
       </c>
     </row>
@@ -5093,60 +4775,55 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E63" t="n">
+        <v>450000</v>
       </c>
       <c r="F63" t="n">
-        <v>450000</v>
+        <v>3646</v>
       </c>
       <c r="G63" t="n">
-        <v>3646</v>
+        <v>2453</v>
       </c>
       <c r="H63" t="n">
-        <v>2453</v>
-      </c>
-      <c r="I63" t="n">
         <v>1193</v>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>20</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>20</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>875040</v>
       </c>
       <c r="N63" t="n">
-        <v>875040</v>
-      </c>
-      <c r="O63" t="n">
         <v>1.944533333333333</v>
       </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>4종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>4종 수술 및 시술</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>4종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한). 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>질병 치료 위해 4종 수술 및 시술 시 가입금액 지급. 1회의 입원 또는 통원당 1회 보장</t>
         </is>
       </c>
     </row>
@@ -5172,60 +4849,55 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E64" t="n">
+        <v>3000000</v>
       </c>
       <c r="F64" t="n">
-        <v>3000000</v>
+        <v>5058</v>
       </c>
       <c r="G64" t="n">
-        <v>5058</v>
+        <v>3411</v>
       </c>
       <c r="H64" t="n">
-        <v>3411</v>
-      </c>
-      <c r="I64" t="n">
         <v>1647</v>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>20</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>20</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>1213920</v>
       </c>
       <c r="N64" t="n">
-        <v>1213920</v>
-      </c>
-      <c r="O64" t="n">
         <v>0.40464</v>
       </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>5종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>5종 수술 및 시술</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>5종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한). 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>질병 치료 위해 5종 수술 및 시술 시 가입금액 지급. 1회의 입원 또는 통원당 1회 보장</t>
         </is>
       </c>
     </row>
@@ -5251,60 +4923,55 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E65" t="n">
+        <v>6000000</v>
       </c>
       <c r="F65" t="n">
-        <v>6000000</v>
+        <v>5056</v>
       </c>
       <c r="G65" t="n">
-        <v>5056</v>
+        <v>3410</v>
       </c>
       <c r="H65" t="n">
-        <v>3410</v>
-      </c>
-      <c r="I65" t="n">
         <v>1646</v>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>20</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>20</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>1213440</v>
       </c>
       <c r="N65" t="n">
-        <v>1213440</v>
-      </c>
-      <c r="O65" t="n">
         <v>0.20224</v>
       </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>6종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>6종 수술 및 시술</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>6종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한). 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>질병 치료 위해 6종 수술 및 시술 시 가입금액 지급. 1회의 입원 또는 통원당 1회 보장</t>
         </is>
       </c>
     </row>
@@ -5330,60 +4997,55 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E66" t="n">
+        <v>9000000</v>
       </c>
       <c r="F66" t="n">
-        <v>9000000</v>
+        <v>5056</v>
       </c>
       <c r="G66" t="n">
-        <v>5056</v>
+        <v>3410</v>
       </c>
       <c r="H66" t="n">
-        <v>3410</v>
-      </c>
-      <c r="I66" t="n">
         <v>1646</v>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>20</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>20</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1213440</v>
       </c>
       <c r="N66" t="n">
-        <v>1213440</v>
-      </c>
-      <c r="O66" t="n">
         <v>0.1348266666666667</v>
       </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>7종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>7종 수술 및 시술</t>
+          <t>수술시술코드당 연간1회한</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>7종 수술 및 시술을 받은 경우 가입금액 지급(수술시술코드당 연간1회한). 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>질병 치료 위해 7종 수술 및 시술 시 가입금액 지급. 1회의 입원 또는 통원당 1회 보장</t>
         </is>
       </c>
     </row>
@@ -5409,60 +5071,55 @@
 ※ 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>연간 1회</t>
-        </is>
+      <c r="E67" t="n">
+        <v>15000000</v>
       </c>
       <c r="F67" t="n">
-        <v>15000000</v>
+        <v>5056</v>
       </c>
       <c r="G67" t="n">
-        <v>5056</v>
+        <v>3410</v>
       </c>
       <c r="H67" t="n">
-        <v>3410</v>
-      </c>
-      <c r="I67" t="n">
         <v>1646</v>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>20</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>20</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>1213440</v>
       </c>
       <c r="N67" t="n">
-        <v>1213440</v>
-      </c>
-      <c r="O67" t="n">
         <v>0.080896</v>
       </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>8종 수술 및 시술</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>8종 수술 및 시술</t>
+          <t>수술시술코드당 연간1회</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>수술시술코드당 연간1회한</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>질병의 치료를 직접적인 목적으로 8종 수술 및 시술을 받은 경우 가입금액 지급. 1회의 입원당 1회의 「수술 및 시술」 또는 1회의 통원당 1회의 「수술 및 시술」에 한하여 보장</t>
+          <t>8종 수술 및 시술 받은 경우 가입금액 지급. 1회의 입원당 1회의 수술 및 시술 또는 1회의 통원당 1회의 수술 및 시술에 한하여 보장</t>
         </is>
       </c>
     </row>
@@ -5487,56 +5144,51 @@
           <t>보험기간 중 질병으로 병원(요양병원 제외)에 1일이상 계속 입원하여 치료 를 받으며, 약관에 정한 간호·간병통합서비스를 사용한 경우 가입금액 지급 (180일을 한도로 간호·간병통합서비스 사용 1일당 일당지급)</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1일</t>
-        </is>
+      <c r="E68" t="n">
+        <v>70000</v>
       </c>
       <c r="F68" t="n">
-        <v>70000</v>
+        <v>3425</v>
       </c>
       <c r="G68" t="n">
-        <v>3425</v>
+        <v>2331</v>
       </c>
       <c r="H68" t="n">
-        <v>2331</v>
-      </c>
-      <c r="I68" t="n">
         <v>1094</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>20</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>20</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>822000</v>
       </c>
       <c r="N68" t="n">
-        <v>822000</v>
-      </c>
-      <c r="O68" t="n">
         <v>11.74285714285714</v>
       </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>간호·간병통합서비스</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>간호·간병통합서비스</t>
+          <t>1일 일당</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>1일당</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>질병으로 1일 이상 입원 시 간호·간병통합서비스 사용 시 가입금액 지급. 180일을 한도로 간호·간병통합서비스 사용 1일당 일당지급</t>
+          <t>1일 이상 입원하여 간호·간병통합서비스 사용한 경우 가입금액 지급. 180일을 한도로 1일당 일당지급</t>
         </is>
       </c>
     </row>
@@ -5561,58 +5213,53 @@
           <t>보험기간 중 약관에서 정한 급성심근경색증으로 진단 확정되고, 그 치료를 직접적인 목적으로 혈전용해 치료를 받은 경우(각각 최초 1회한)</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E69" t="n">
+        <v>10000000</v>
       </c>
       <c r="F69" t="n">
-        <v>10000000</v>
+        <v>445</v>
       </c>
       <c r="G69" t="n">
         <v>445</v>
       </c>
-      <c r="H69" t="n">
-        <v>445</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>20</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>20</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>106800</v>
       </c>
       <c r="N69" t="n">
-        <v>106800</v>
-      </c>
-      <c r="O69" t="n">
         <v>0.01068</v>
       </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>급성심근경색증</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>급성심근경색증</t>
+          <t>최초 1회</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>최초 1회한</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>급성심근경색증 진단 후 혈전용해 치료 시 가입금액 지급. 최초 1회한</t>
+          <t>급성심근경색증 진단 후 혈전용해 치료 받은 경우 가입금액 지급. 최초 1회</t>
         </is>
       </c>
     </row>
@@ -5637,58 +5284,53 @@
           <t>보험기간 중 약관에서 정한 뇌경색증으로 진단 확정되고, 그 치료를 직접적 인 목적으로 혈전용해 치료를 받은 경우(각각 최초 1회한)</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>최초 1회</t>
-        </is>
+      <c r="E70" t="n">
+        <v>10000000</v>
       </c>
       <c r="F70" t="n">
-        <v>10000000</v>
+        <v>445</v>
       </c>
       <c r="G70" t="n">
         <v>445</v>
       </c>
-      <c r="H70" t="n">
-        <v>445</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>20</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>20</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>106800</v>
       </c>
       <c r="N70" t="n">
-        <v>106800</v>
-      </c>
-      <c r="O70" t="n">
         <v>0.01068</v>
       </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>뇌경색증</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>뇌경색증</t>
+          <t>최초 1회</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>최초 1회한</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>뇌경색증 진단 후 혈전용해 치료 시 가입금액 지급. 최초 1회한</t>
+          <t>뇌경색증 진단 후 혈전용해 치료 받은 경우 가입금액 지급. 최초 1회</t>
         </is>
       </c>
     </row>
@@ -5713,54 +5355,49 @@
           <t>상해사고로 심재성 2도 이상에 해당하는 화상으로 진단 확정 후 그 치료를 직접적인 목적으로 수술을 받은 경우 가입금액 지급</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E71" t="n">
+        <v>300000</v>
       </c>
       <c r="F71" t="n">
-        <v>300000</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
         <v>11</v>
       </c>
-      <c r="H71" t="n">
-        <v>11</v>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>20</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>20</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>2640</v>
       </c>
       <c r="N71" t="n">
-        <v>2640</v>
-      </c>
-      <c r="O71" t="n">
         <v>0.008800000000000001</v>
       </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>화상</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>화상</t>
+          <t>수술시</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>치료시</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>심재성 2도 이상 화상 수술 시 가입금액 지급</t>
+          <t>심재성 2도 이상 화상 수술 받은 경우 가입금액 지급</t>
         </is>
       </c>
     </row>
@@ -5785,52 +5422,47 @@
           <t>상해사고로 심재성 2도 이상에 해당하는 화상으로 진단 확정된 경우 가입금 액 지급</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>발생시</t>
-        </is>
+      <c r="E72" t="n">
+        <v>100000</v>
       </c>
       <c r="F72" t="n">
-        <v>100000</v>
+        <v>76</v>
       </c>
       <c r="G72" t="n">
         <v>76</v>
       </c>
-      <c r="H72" t="n">
-        <v>76</v>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>100세만기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>20</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>납</t>
-        </is>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>100세만기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>20</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>납</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>18240</v>
       </c>
       <c r="N72" t="n">
-        <v>18240</v>
-      </c>
-      <c r="O72" t="n">
         <v>0.1824</v>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>화상</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>화상</t>
+          <t>수술시</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
-        <is>
-          <t>치료시</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
         <is>
           <t>심재성 2도 이상 화상 수술 시 가입금액 지급</t>
         </is>
